--- a/tables/breastcancer_basic120_5.xlsx
+++ b/tables/breastcancer_basic120_5.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,49 +691,49 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C8" t="n">
-        <v>90.32258064516128</v>
+        <v>75.26881720430106</v>
       </c>
       <c r="D8" t="n">
-        <v>93.54838709677419</v>
+        <v>80.64516129032258</v>
       </c>
       <c r="E8" t="n">
-        <v>84.94623655913979</v>
+        <v>61.29032258064516</v>
       </c>
       <c r="F8" t="n">
-        <v>84.94623655913979</v>
+        <v>60.21505376344086</v>
       </c>
       <c r="G8" t="n">
-        <v>10.75268817204301</v>
+        <v>11.82795698924731</v>
       </c>
       <c r="H8" t="n">
         <v>12.90322580645161</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="J8" t="n">
-        <v>1.075268817204301</v>
+        <v>2.150537634408602</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>75.26881720430106</v>
+        <v>54.83870967741935</v>
       </c>
       <c r="D9" t="n">
-        <v>80.64516129032258</v>
+        <v>63.44086021505376</v>
       </c>
       <c r="E9" t="n">
-        <v>61.29032258064516</v>
+        <v>12.90322580645161</v>
       </c>
       <c r="F9" t="n">
-        <v>60.21505376344086</v>
+        <v>4.301075268817205</v>
       </c>
       <c r="G9" t="n">
         <v>11.82795698924731</v>
@@ -745,34 +745,34 @@
         <v>3.225806451612903</v>
       </c>
       <c r="J9" t="n">
-        <v>2.150537634408602</v>
+        <v>1.075268817204301</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>54.83870967741935</v>
+        <v>92.47311827956987</v>
       </c>
       <c r="D10" t="n">
-        <v>63.44086021505376</v>
+        <v>91.39784946236557</v>
       </c>
       <c r="E10" t="n">
-        <v>12.90322580645161</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="F10" t="n">
-        <v>4.301075268817205</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>11.82795698924731</v>
+        <v>10.75268817204301</v>
       </c>
       <c r="H10" t="n">
         <v>12.90322580645161</v>
       </c>
       <c r="I10" t="n">
-        <v>3.225806451612903</v>
+        <v>1.075268817204301</v>
       </c>
       <c r="J10" t="n">
         <v>1.075268817204301</v>
@@ -781,16 +781,16 @@
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>92.47311827956987</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>91.39784946236557</v>
+        <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>66.66666666666666</v>
+        <v>62.36559139784946</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -799,40 +799,44 @@
         <v>10.75268817204301</v>
       </c>
       <c r="H11" t="n">
-        <v>12.90322580645161</v>
+        <v>11.82795698924731</v>
       </c>
       <c r="I11" t="n">
-        <v>1.075268817204301</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>1.075268817204301</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>boundary</t>
+        </is>
+      </c>
       <c r="B12" s="1" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>88.1720430107527</v>
       </c>
       <c r="D12" t="n">
-        <v>100</v>
+        <v>97.84946236559141</v>
       </c>
       <c r="E12" t="n">
-        <v>62.36559139784946</v>
+        <v>59.13978494623656</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>68.81720430107528</v>
       </c>
       <c r="G12" t="n">
         <v>10.75268817204301</v>
       </c>
       <c r="H12" t="n">
-        <v>11.82795698924731</v>
+        <v>12.90322580645161</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="J12" t="n">
         <v>1.075268817204301</v>
@@ -841,29 +845,29 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>boundary</t>
+          <t>cw2</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>88.1720430107527</v>
+        <v>70.96774193548387</v>
       </c>
       <c r="D13" t="n">
-        <v>97.84946236559141</v>
+        <v>96.77419354838709</v>
       </c>
       <c r="E13" t="n">
-        <v>59.13978494623656</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="F13" t="n">
-        <v>68.81720430107528</v>
+        <v>74.19354838709677</v>
       </c>
       <c r="G13" t="n">
-        <v>10.75268817204301</v>
+        <v>9.677419354838712</v>
       </c>
       <c r="H13" t="n">
-        <v>12.90322580645161</v>
+        <v>13.97849462365591</v>
       </c>
       <c r="I13" t="n">
         <v>3.225806451612903</v>
@@ -873,34 +877,30 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>cw2</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>70.96774193548387</v>
+        <v>56.98924731182797</v>
       </c>
       <c r="D14" t="n">
-        <v>96.77419354838709</v>
+        <v>48.38709677419354</v>
       </c>
       <c r="E14" t="n">
-        <v>22.58064516129032</v>
+        <v>10.75268817204301</v>
       </c>
       <c r="F14" t="n">
-        <v>74.19354838709677</v>
+        <v>7.526881720430107</v>
       </c>
       <c r="G14" t="n">
         <v>9.677419354838712</v>
       </c>
       <c r="H14" t="n">
-        <v>13.97849462365591</v>
+        <v>12.90322580645161</v>
       </c>
       <c r="I14" t="n">
-        <v>3.225806451612903</v>
+        <v>1.075268817204301</v>
       </c>
       <c r="J14" t="n">
         <v>1.075268817204301</v>
@@ -909,52 +909,56 @@
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>56.98924731182797</v>
+        <v>81.72043010752688</v>
       </c>
       <c r="D15" t="n">
-        <v>48.38709677419354</v>
+        <v>82.79569892473118</v>
       </c>
       <c r="E15" t="n">
-        <v>10.75268817204301</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="F15" t="n">
         <v>7.526881720430107</v>
       </c>
       <c r="G15" t="n">
-        <v>9.677419354838712</v>
+        <v>12.90322580645161</v>
       </c>
       <c r="H15" t="n">
-        <v>12.90322580645161</v>
+        <v>13.97849462365591</v>
       </c>
       <c r="I15" t="n">
-        <v>1.075268817204301</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>1.075268817204301</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>deepfool</t>
+        </is>
+      </c>
       <c r="B16" s="1" t="n">
-        <v>10</v>
+        <v>1e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>81.72043010752688</v>
+        <v>86.02150537634407</v>
       </c>
       <c r="D16" t="n">
-        <v>82.79569892473118</v>
+        <v>89.24731182795698</v>
       </c>
       <c r="E16" t="n">
-        <v>66.66666666666666</v>
+        <v>68.81720430107528</v>
       </c>
       <c r="F16" t="n">
-        <v>7.526881720430107</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="G16" t="n">
-        <v>12.90322580645161</v>
+        <v>11.82795698924731</v>
       </c>
       <c r="H16" t="n">
         <v>13.97849462365591</v>
@@ -969,29 +973,29 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>deepfool</t>
+          <t>fgsm</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>1e-06</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>86.02150537634407</v>
+        <v>93.54838709677419</v>
       </c>
       <c r="D17" t="n">
-        <v>89.24731182795698</v>
+        <v>90.32258064516128</v>
       </c>
       <c r="E17" t="n">
-        <v>68.81720430107528</v>
+        <v>82.79569892473118</v>
       </c>
       <c r="F17" t="n">
-        <v>3.225806451612903</v>
+        <v>82.79569892473118</v>
       </c>
       <c r="G17" t="n">
-        <v>11.82795698924731</v>
+        <v>10.75268817204301</v>
       </c>
       <c r="H17" t="n">
-        <v>13.97849462365591</v>
+        <v>12.90322580645161</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1001,25 +1005,21 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>fgsm</t>
-        </is>
-      </c>
+      <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C18" t="n">
+        <v>96.77419354838709</v>
+      </c>
+      <c r="D18" t="n">
         <v>93.54838709677419</v>
       </c>
-      <c r="D18" t="n">
-        <v>90.32258064516128</v>
-      </c>
       <c r="E18" t="n">
-        <v>82.79569892473118</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="F18" t="n">
-        <v>82.79569892473118</v>
+        <v>7.526881720430107</v>
       </c>
       <c r="G18" t="n">
         <v>10.75268817204301</v>
@@ -1028,7 +1028,7 @@
         <v>12.90322580645161</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.075268817204301</v>
       </c>
       <c r="J18" t="n">
         <v>1.075268817204301</v>
@@ -1037,28 +1037,28 @@
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C19" t="n">
-        <v>96.77419354838709</v>
+        <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>93.54838709677419</v>
+        <v>100</v>
       </c>
       <c r="E19" t="n">
-        <v>22.58064516129032</v>
+        <v>51.61290322580646</v>
       </c>
       <c r="F19" t="n">
-        <v>7.526881720430107</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>10.75268817204301</v>
+        <v>11.82795698924731</v>
       </c>
       <c r="H19" t="n">
-        <v>12.90322580645161</v>
+        <v>15.05376344086021</v>
       </c>
       <c r="I19" t="n">
-        <v>1.075268817204301</v>
+        <v>2.150537634408602</v>
       </c>
       <c r="J19" t="n">
         <v>1.075268817204301</v>
@@ -1067,7 +1067,7 @@
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>100</v>
@@ -1076,7 +1076,7 @@
         <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>51.61290322580646</v>
+        <v>87.09677419354837</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1088,39 +1088,9 @@
         <v>15.05376344086021</v>
       </c>
       <c r="I20" t="n">
-        <v>2.150537634408602</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.075268817204301</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>100</v>
-      </c>
-      <c r="D21" t="n">
-        <v>100</v>
-      </c>
-      <c r="E21" t="n">
-        <v>87.09677419354837</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>11.82795698924731</v>
-      </c>
-      <c r="H21" t="n">
-        <v>15.05376344086021</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
         <v>1.075268817204301</v>
       </c>
     </row>
@@ -1129,9 +1099,9 @@
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A17:A20"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/tables/breastcancer_basic120_5.xlsx
+++ b/tables/breastcancer_basic120_5.xlsx
@@ -570,10 +570,10 @@
         <v>0.05</v>
       </c>
       <c r="C4" t="n">
+        <v>89.24731182795698</v>
+      </c>
+      <c r="D4" t="n">
         <v>90.32258064516128</v>
-      </c>
-      <c r="D4" t="n">
-        <v>91.39784946236557</v>
       </c>
       <c r="E4" t="n">
         <v>82.79569892473118</v>
@@ -600,10 +600,10 @@
         <v>0.2</v>
       </c>
       <c r="C5" t="n">
-        <v>89.24731182795698</v>
+        <v>90.32258064516128</v>
       </c>
       <c r="D5" t="n">
-        <v>91.39784946236557</v>
+        <v>90.32258064516128</v>
       </c>
       <c r="E5" t="n">
         <v>23.65591397849462</v>
@@ -615,7 +615,7 @@
         <v>11.82795698924731</v>
       </c>
       <c r="H5" t="n">
-        <v>12.90322580645161</v>
+        <v>13.97849462365591</v>
       </c>
       <c r="I5" t="n">
         <v>3.225806451612903</v>
@@ -645,7 +645,7 @@
         <v>11.82795698924731</v>
       </c>
       <c r="H6" t="n">
-        <v>11.82795698924731</v>
+        <v>13.97849462365591</v>
       </c>
       <c r="I6" t="n">
         <v>1.075268817204301</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>10.75268817204301</v>
+        <v>11.82795698924731</v>
       </c>
       <c r="H7" t="n">
         <v>13.97849462365591</v>
@@ -694,10 +694,10 @@
         <v>0.4</v>
       </c>
       <c r="C8" t="n">
-        <v>75.26881720430106</v>
+        <v>74.19354838709677</v>
       </c>
       <c r="D8" t="n">
-        <v>80.64516129032258</v>
+        <v>79.56989247311827</v>
       </c>
       <c r="E8" t="n">
         <v>61.29032258064516</v>
@@ -709,7 +709,7 @@
         <v>11.82795698924731</v>
       </c>
       <c r="H8" t="n">
-        <v>12.90322580645161</v>
+        <v>13.97849462365591</v>
       </c>
       <c r="I8" t="n">
         <v>3.225806451612903</v>
@@ -724,10 +724,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>54.83870967741935</v>
+        <v>60.21505376344086</v>
       </c>
       <c r="D9" t="n">
-        <v>63.44086021505376</v>
+        <v>60.21505376344086</v>
       </c>
       <c r="E9" t="n">
         <v>12.90322580645161</v>
@@ -739,7 +739,7 @@
         <v>11.82795698924731</v>
       </c>
       <c r="H9" t="n">
-        <v>12.90322580645161</v>
+        <v>13.97849462365591</v>
       </c>
       <c r="I9" t="n">
         <v>3.225806451612903</v>
@@ -754,10 +754,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>92.47311827956987</v>
+        <v>90.32258064516128</v>
       </c>
       <c r="D10" t="n">
-        <v>91.39784946236557</v>
+        <v>90.32258064516128</v>
       </c>
       <c r="E10" t="n">
         <v>66.66666666666666</v>
@@ -766,10 +766,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>10.75268817204301</v>
+        <v>11.82795698924731</v>
       </c>
       <c r="H10" t="n">
-        <v>12.90322580645161</v>
+        <v>13.97849462365591</v>
       </c>
       <c r="I10" t="n">
         <v>1.075268817204301</v>
@@ -796,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>10.75268817204301</v>
+        <v>11.82795698924731</v>
       </c>
       <c r="H11" t="n">
-        <v>11.82795698924731</v>
+        <v>13.97849462365591</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0.3</v>
       </c>
       <c r="C12" t="n">
-        <v>88.1720430107527</v>
+        <v>87.09677419354837</v>
       </c>
       <c r="D12" t="n">
         <v>97.84946236559141</v>
@@ -830,10 +830,10 @@
         <v>68.81720430107528</v>
       </c>
       <c r="G12" t="n">
-        <v>10.75268817204301</v>
+        <v>11.82795698924731</v>
       </c>
       <c r="H12" t="n">
-        <v>12.90322580645161</v>
+        <v>13.97849462365591</v>
       </c>
       <c r="I12" t="n">
         <v>3.225806451612903</v>
@@ -852,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>70.96774193548387</v>
+        <v>72.04301075268819</v>
       </c>
       <c r="D13" t="n">
-        <v>96.77419354838709</v>
+        <v>94.6236559139785</v>
       </c>
       <c r="E13" t="n">
         <v>22.58064516129032</v>
@@ -864,7 +864,7 @@
         <v>74.19354838709677</v>
       </c>
       <c r="G13" t="n">
-        <v>9.677419354838712</v>
+        <v>11.82795698924731</v>
       </c>
       <c r="H13" t="n">
         <v>13.97849462365591</v>
@@ -882,10 +882,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>56.98924731182797</v>
+        <v>52.68817204301075</v>
       </c>
       <c r="D14" t="n">
-        <v>48.38709677419354</v>
+        <v>52.68817204301075</v>
       </c>
       <c r="E14" t="n">
         <v>10.75268817204301</v>
@@ -894,10 +894,10 @@
         <v>7.526881720430107</v>
       </c>
       <c r="G14" t="n">
-        <v>9.677419354838712</v>
+        <v>11.82795698924731</v>
       </c>
       <c r="H14" t="n">
-        <v>12.90322580645161</v>
+        <v>13.97849462365591</v>
       </c>
       <c r="I14" t="n">
         <v>1.075268817204301</v>
@@ -912,10 +912,10 @@
         <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>81.72043010752688</v>
+        <v>86.02150537634407</v>
       </c>
       <c r="D15" t="n">
-        <v>82.79569892473118</v>
+        <v>86.02150537634407</v>
       </c>
       <c r="E15" t="n">
         <v>66.66666666666666</v>
@@ -924,7 +924,7 @@
         <v>7.526881720430107</v>
       </c>
       <c r="G15" t="n">
-        <v>12.90322580645161</v>
+        <v>11.82795698924731</v>
       </c>
       <c r="H15" t="n">
         <v>13.97849462365591</v>
@@ -946,7 +946,7 @@
         <v>1e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>86.02150537634407</v>
+        <v>84.94623655913979</v>
       </c>
       <c r="D16" t="n">
         <v>89.24731182795698</v>
@@ -980,10 +980,10 @@
         <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>93.54838709677419</v>
+        <v>89.24731182795698</v>
       </c>
       <c r="D17" t="n">
-        <v>90.32258064516128</v>
+        <v>89.24731182795698</v>
       </c>
       <c r="E17" t="n">
         <v>82.79569892473118</v>
@@ -992,10 +992,10 @@
         <v>82.79569892473118</v>
       </c>
       <c r="G17" t="n">
-        <v>10.75268817204301</v>
+        <v>11.82795698924731</v>
       </c>
       <c r="H17" t="n">
-        <v>12.90322580645161</v>
+        <v>13.97849462365591</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0.2</v>
       </c>
       <c r="C18" t="n">
-        <v>96.77419354838709</v>
+        <v>93.54838709677419</v>
       </c>
       <c r="D18" t="n">
         <v>93.54838709677419</v>
@@ -1022,10 +1022,10 @@
         <v>7.526881720430107</v>
       </c>
       <c r="G18" t="n">
-        <v>10.75268817204301</v>
+        <v>11.82795698924731</v>
       </c>
       <c r="H18" t="n">
-        <v>12.90322580645161</v>
+        <v>13.97849462365591</v>
       </c>
       <c r="I18" t="n">
         <v>1.075268817204301</v>
@@ -1055,7 +1055,7 @@
         <v>11.82795698924731</v>
       </c>
       <c r="H19" t="n">
-        <v>15.05376344086021</v>
+        <v>13.97849462365591</v>
       </c>
       <c r="I19" t="n">
         <v>2.150537634408602</v>
@@ -1085,7 +1085,7 @@
         <v>11.82795698924731</v>
       </c>
       <c r="H20" t="n">
-        <v>15.05376344086021</v>
+        <v>13.97849462365591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
